--- a/docs/assets/disciplinas/LOB1264.xlsx
+++ b/docs/assets/disciplinas/LOB1264.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>To train higher education professionals with knowledge in environmental toxicology that will allow them to act in the assessment of environmental risk and public health, assessment of environmental impact and public health, as well as to act in the management of this risk.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
+    <t>8855158 - Morun Bernardino Neto</t>
   </si>
   <si>
     <t>Programa resumido:</t>
@@ -494,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,105 +626,105 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60" customHeight="1">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="120" customHeight="1">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" customHeight="1">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="120" customHeight="1">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1">
       <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
@@ -726,12 +732,25 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>40</v>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOB1264.xlsx
+++ b/docs/assets/disciplinas/LOB1264.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Formar profissionais de nível superior com conhecimento em toxicologia ambiental que lhe permita atuar na avaliação de risco ambiental e a saúde pública, avaliação de impacto ambiental e à saúde pública, bem como atuar no manejo desse risco.</t>
+    <t>8855158 - Morun Bernardino Neto</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>8855158 - Morun Bernardino Neto</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Princípios gerais e bases moleculares dos mecanismos da toxicidade; Toxicocinética; Agentes tóxicos de interesse ambiental e seus efeitos</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Princípios gerais da toxicologia: Princípios de toxicologia; Bases moleculares dos mecanismos da toxicidade. Toxicocinética: Absorção; Biodisponibilidade e biotransformação; Volume de distribuição aparente; Clearance; Período de meia-vida; Eliminação; Toxicocinética dose-dependente; Acúmulo durante exposição contínua ou intermitente. Agentes Tóxicos: Efeitos tóxicos dos pesticidas; Efeitos tóxicos dos solventes; Efeitos tóxicos dos metais; Efeitos tóxicos de venenos.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas teóricas expositivas com resolução de exercícios e discussão de casos reais de impactos ambientais e seus potenciais reflexos à saúde pública: análise de riscos, avaliação dos impactos ambientais, avaliação dos impactos à saúde pública e manejo de riscos.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>O sistema de avaliação será composto por 2 avaliações de igual peso. A Nota Final será obtida por meio da média simples dessas duas avaliações. Estará aprovado por notas o aluno que obtiver nota final igual ou superior a 5,0 pontos.(Nota final+P_recuperação)/2</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Estará em período de recuperação o aluno que obtiver notas entre 3,0 e 4,9. Para esses alunos a Nota Finalrec será calculada pela média simples entre a avaliação de recuperação (todo o conteúdo do semestre) e sua nota final.(Nota final+P_recuperação)/2</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>A)KLAASSEN, C.  Casarett &amp; Doull's Toxicology - The Basic Science Of  Poisons. 8th ed. McGraw Hill Education. 2013. 1473p.B)OGA, SEIZE; CAMARGO, MÁRCIA M. A.; BATISTUZZO, JOSÉ A. O. Fundamentos de Toxicologia. 4.ed. Atheneu. 2014. 696p.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -500,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,34 +622,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -672,85 +666,74 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOB1264.xlsx
+++ b/docs/assets/disciplinas/LOB1264.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Formar profissionais de nível superior com conhecimento em toxicologia ambiental que lhe permita atuar na avaliação de risco ambiental e a saúde pública, avaliação de impacto ambiental e à saúde pública, bem como atuar no manejo desse risco.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>To train higher education professionals with knowledge in environmental toxicology that will allow them to act in the assessment of environmental risk and public health, assessment of environmental impact and public health, as well as to act in the management of this risk.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>8855158 - Morun Bernardino Neto</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>To train higher education professionals with knowledge in environmental toxicology that will allow them to act in the assessment of environmental risk and public health, assessment of environmental impact and public health, as well as to act in the management of this risk.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Princípios gerais e bases moleculares dos mecanismos da toxicidade; Toxicocinética; Agentes tóxicos de interesse ambiental e seus efeitos</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Princípios gerais da toxicologia: Princípios de toxicologia; Bases moleculares dos mecanismos da toxicidade. Toxicocinética: Absorção; Biodisponibilidade e biotransformação; Volume de distribuição aparente; Clearance; Período de meia-vida; Eliminação; Toxicocinética dose-dependente; Acúmulo durante exposição contínua ou intermitente. Agentes Tóxicos: Efeitos tóxicos dos pesticidas; Efeitos tóxicos dos solventes; Efeitos tóxicos dos metais; Efeitos tóxicos de venenos.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas teóricas expositivas com resolução de exercícios e discussão de casos reais de impactos ambientais e seus potenciais reflexos à saúde pública: análise de riscos, avaliação dos impactos ambientais, avaliação dos impactos à saúde pública e manejo de riscos.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas teóricas expositivas com resolução de exercícios e discussão de casos reais de impactos ambientais e seus potenciais reflexos à saúde pública: análise de riscos, avaliação dos impactos ambientais, avaliação dos impactos à saúde pública e manejo de riscos.</t>
+    <t>O sistema de avaliação será composto por 2 avaliações de igual peso. A Nota Final será obtida por meio da média simples dessas duas avaliações. Estará aprovado por notas o aluno que obtiver nota final igual ou superior a 5,0 pontos.(Nota final+P_recuperação)/2</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>O sistema de avaliação será composto por 2 avaliações de igual peso. A Nota Final será obtida por meio da média simples dessas duas avaliações. Estará aprovado por notas o aluno que obtiver nota final igual ou superior a 5,0 pontos.(Nota final+P_recuperação)/2</t>
+    <t>Estará em período de recuperação o aluno que obtiver notas entre 3,0 e 4,9. Para esses alunos a Nota Finalrec será calculada pela média simples entre a avaliação de recuperação (todo o conteúdo do semestre) e sua nota final.(Nota final+P_recuperação)/2</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Estará em período de recuperação o aluno que obtiver notas entre 3,0 e 4,9. Para esses alunos a Nota Finalrec será calculada pela média simples entre a avaliação de recuperação (todo o conteúdo do semestre) e sua nota final.(Nota final+P_recuperação)/2</t>
+    <t>A)KLAASSEN, C.  Casarett &amp; Doull's Toxicology - The Basic Science Of  Poisons. 8th ed. McGraw Hill Education. 2013. 1473p.B)OGA, SEIZE; CAMARGO, MÁRCIA M. A.; BATISTUZZO, JOSÉ A. O. Fundamentos de Toxicologia. 4.ed. Atheneu. 2014. 696p.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -491,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -622,37 +631,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -666,74 +672,85 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
